--- a/src/main/resources/excel/finished/焦化/CK67-配煤报表设计1107.xlsx
+++ b/src/main/resources/excel/finished/焦化/CK67-配煤报表设计1107.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500" tabRatio="749" activeTab="1"/>
+    <workbookView windowWidth="19935" windowHeight="7860" tabRatio="749" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1、自动配煤（班）" sheetId="1" r:id="rId1"/>
@@ -862,658 +862,658 @@
     </r>
   </si>
   <si>
-    <t>CK67_L1R_CB_11CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_12CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_13CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_14CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_15CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_16CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_21CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_22CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_23CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_24CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_25CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_26CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_31CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_32CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_33CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_34CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_35CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_36CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_11CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_12CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_13CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_14CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_15CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_16CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_21CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_22CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_23CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_24CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_25CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_26CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_31CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_32CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_33CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_34CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_35CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_36CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_11CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_12CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_13CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_14CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_15CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_16CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_21CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_22CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_23CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_24CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_25CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_26CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_31CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_32CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_33CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_34CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_35CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_36CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_11CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_12CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_13CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_14CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_15CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_16CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_21CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_22CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_23CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_24CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_25CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_26CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_31CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_32CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_33CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_34CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_35CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_36CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_41CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_42CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_43CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_44CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_45CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_46CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_51CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_52CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_53CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_54CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_55CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_56CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_61CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_62CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_63CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_64CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_65CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_66CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_41CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_42CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_43CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_44CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_45CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_46CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_51CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_52CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_53CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_54CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_55CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_56CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_61CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_62CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_63CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_64CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_65CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_66CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_41CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_42CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_43CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_44CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_45CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_46CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_51CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_52CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_53CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_54CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_55CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_56CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_61CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_62CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_63CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_64CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_65CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_66CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_41CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_42CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_43CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_44CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_45CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_46CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_51CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_52CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_53CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_54CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_55CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_56CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_61CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_62CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_63CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_64CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_65CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_66CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_71CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_72CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_73CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_74CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_75CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_76CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_81CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_82CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_83CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_84CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_85CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_86CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_91CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_92CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_93CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_94CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_95CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_96CBRatio_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_71CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_72CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_73CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_74CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_75CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_76CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_81CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_82CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_83CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_84CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_85CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_86CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_91CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_92CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_93CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_94CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_95CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_96CBAc_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_71CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_72CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_73CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_74CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_75CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_76CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_81CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_82CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_83CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_84CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_85CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_86CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_91CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_92CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_93CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_94CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_95CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_96CBShiftRunTime_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_71CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_72CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_73CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_74CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_75CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_76CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_81CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_82CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_83CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_84CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_85CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_86CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_91CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_92CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_93CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_94CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_95CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_96CBShiftAmt_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_CBAmtTol_1min_avg</t>
-  </si>
-  <si>
-    <t>CK67_L1R_CB_CBAcTol_1min_avg</t>
+    <t>CK67_L1R_CB_11CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_12CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_13CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_14CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_15CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_16CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_21CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_22CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_23CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_24CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_25CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_26CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_31CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_32CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_33CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_34CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_35CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_36CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_11CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_12CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_13CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_14CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_15CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_16CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_21CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_22CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_23CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_24CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_25CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_26CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_31CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_32CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_33CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_34CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_35CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_36CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_11CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_12CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_13CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_14CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_15CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_16CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_21CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_22CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_23CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_24CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_25CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_26CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_31CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_32CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_33CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_34CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_35CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_36CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_11CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_12CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_13CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_14CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_15CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_16CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_21CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_22CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_23CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_24CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_25CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_26CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_31CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_32CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_33CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_34CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_35CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_36CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_41CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_42CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_43CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_44CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_45CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_46CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_51CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_52CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_53CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_54CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_55CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_56CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_61CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_62CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_63CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_64CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_65CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_66CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_41CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_42CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_43CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_44CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_45CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_46CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_51CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_52CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_53CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_54CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_55CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_56CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_61CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_62CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_63CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_64CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_65CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_66CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_41CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_42CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_43CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_44CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_45CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_46CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_51CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_52CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_53CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_54CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_55CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_56CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_61CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_62CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_63CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_64CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_65CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_66CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_41CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_42CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_43CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_44CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_45CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_46CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_51CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_52CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_53CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_54CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_55CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_56CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_61CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_62CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_63CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_64CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_65CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_66CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_71CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_72CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_73CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_74CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_75CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_76CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_81CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_82CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_83CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_84CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_85CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_86CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_91CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_92CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_93CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_94CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_95CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_96CBRatio_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_71CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_72CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_73CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_74CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_75CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_76CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_81CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_82CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_83CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_84CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_85CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_86CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_91CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_92CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_93CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_94CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_95CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_96CBAc_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_71CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_72CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_73CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_74CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_75CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_76CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_81CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_82CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_83CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_84CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_85CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_86CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_91CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_92CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_93CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_94CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_95CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_96CBShiftRunTime_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_71CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_72CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_73CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_74CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_75CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_76CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_81CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_82CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_83CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_84CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_85CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_86CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_91CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_92CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_93CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_94CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_95CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_96CBShiftAmt_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_CBAmtTol_1m_avg</t>
+  </si>
+  <si>
+    <t>CK67_L1R_CB_CBAcTol_1m_avg</t>
   </si>
 </sst>
 </file>
@@ -1521,9 +1521,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="45">
@@ -1660,8 +1660,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1669,9 +1670,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1683,20 +1684,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1704,7 +1691,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1719,7 +1706,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1741,8 +1758,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1757,14 +1790,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1772,33 +1797,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1850,13 +1850,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,7 +1886,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1880,31 +1934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1916,97 +1952,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2024,13 +1976,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2371,12 +2371,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2385,8 +2398,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2409,23 +2422,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2445,26 +2454,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2474,10 +2474,10 @@
     <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2486,133 +2486,133 @@
     <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="33" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4772,7 +4772,7 @@
   </sheetPr>
   <dimension ref="B1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -6688,7 +6688,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:15">
+    <row r="36" ht="15" spans="2:15">
       <c r="B36" s="34" t="str">
         <f>IF(_crushing_month_day!A33="","",_crushing_month_day!A33)</f>
         <v/>
@@ -10439,7 +10439,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10997,8 +10997,8 @@
   <sheetPr/>
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
